--- a/Daisy-xls/ResearchPages/research-skin-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-skin-cancer.xlsx
@@ -145,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -168,12 +168,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -216,6 +231,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -523,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -559,7 +577,9 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="15">
+        <v>488911</v>
+      </c>
       <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
@@ -576,7 +596,9 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="15">
+        <v>890792</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
@@ -594,7 +616,9 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="15">
+        <v>890811</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -612,7 +636,9 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="15">
+        <v>318034</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -630,7 +656,9 @@
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="15">
+        <v>94636</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -648,7 +676,9 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="15">
+        <v>139015</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
@@ -666,7 +696,9 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="15">
+        <v>112307</v>
+      </c>
       <c r="C8" s="12" t="s">
         <v>3</v>
       </c>
